--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.111</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.797</v>
+        <v>15.909</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.022</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.408</v>
+        <v>15.736</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.019</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.304</v>
+        <v>4.862</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.23691453281596</v>
+        <v>11.96889926773391</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.23691456360212</v>
+        <v>9.324828906778553</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.23691457589387</v>
+        <v>17.79892551250823</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.23691453180417</v>
+        <v>2.693426343428275</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.23691456696381</v>
+        <v>10.36046937593733</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.23691457853516</v>
+        <v>11.51770128954512</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.23691453541556</v>
+        <v>7.784082698719285</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.23691457302766</v>
+        <v>24.08923530188306</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.23691458413648</v>
+        <v>23.84787603523298</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.23691458343503</v>
+        <v>8.061562549839127</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.23691459741915</v>
+        <v>13.01587085594896</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.2369146012791</v>
+        <v>14.6947647891714</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.23691455493001</v>
+        <v>14.60321368906719</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.23691458875643</v>
+        <v>1.759109185025192</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.23691459958216</v>
+        <v>12.40653898542119</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.23691458266872</v>
+        <v>12.55143372331223</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.23691461824802</v>
+        <v>19.81741762250474</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.23691463235641</v>
+        <v>25.97502547619067</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.23691457962236</v>
+        <v>5.745393802625681</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.23691461741008</v>
+        <v>9.044419880000778</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.23691463242996</v>
+        <v>13.04179279797451</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.2369145874701</v>
+        <v>1.212694623708309</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.23691462941978</v>
+        <v>12.77834407362888</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.23691454856061</v>
+        <v>17.53121552750422</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.23691458143879</v>
+        <v>22.01384336345518</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.23691459362323</v>
+        <v>21.45757038919419</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.23691454941113</v>
+        <v>1.431348443203298</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.23691458718292</v>
+        <v>25.88278498724837</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.23691459878432</v>
+        <v>25.29476938580461</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.23691455410453</v>
+        <v>5.52242040426896</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.23691459419761</v>
+        <v>38.12005324700447</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.23691460517319</v>
+        <v>32.10883784188209</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.23691460454871</v>
+        <v>34.94470723800144</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.23691461863725</v>
+        <v>42.47114133772189</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.23691462256371</v>
+        <v>43.51903494363651</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.23691457333867</v>
+        <v>20.50598629902615</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.23691460959103</v>
+        <v>27.59181213491024</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.23691461996664</v>
+        <v>31.72786903233839</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.23691460291484</v>
+        <v>16.28366774052648</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.23691464089882</v>
+        <v>25.79798403430568</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.23691465495224</v>
+        <v>29.43185159472262</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.23691460192305</v>
+        <v>5.078326379818812</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.23691464266152</v>
+        <v>20.84337497216313</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.23691465788103</v>
+        <v>30.91625866427482</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.23691465599791</v>
+        <v>37.4566912666338</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.23691455178687</v>
+        <v>9.640771843125169</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.23691458465448</v>
+        <v>18.97966047122956</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.23691459677211</v>
+        <v>21.73072549572505</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.23691455326219</v>
+        <v>0.8650225357460606</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.23691459103748</v>
+        <v>26.81782239770749</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.23691460264349</v>
+        <v>29.82491031571919</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.23691455802202</v>
+        <v>7.5263680199382</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.2369145980871</v>
+        <v>39.96090751824276</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.23691460900059</v>
+        <v>39.81308330485832</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.23691460825889</v>
+        <v>39.99964879603867</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.2369146221957</v>
+        <v>43.57415631883449</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.23691462612454</v>
+        <v>48.57003514567479</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.2369145768028</v>
+        <v>11.39718840826987</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.2369146132312</v>
+        <v>21.65954373417177</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.23691462347272</v>
+        <v>28.1545756407589</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.23691460614314</v>
+        <v>10.72944452961044</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.23691464408841</v>
+        <v>22.63926321428049</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.23691465808916</v>
+        <v>29.5323198708558</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.23691460577364</v>
+        <v>3.648593680747599</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.23691464649341</v>
+        <v>18.71944600828361</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.23691466176168</v>
+        <v>34.05701111503417</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.23691461510224</v>
+        <v>2.180895981832347</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.23691465988438</v>
+        <v>32.8996800733146</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.23691454213872</v>
+        <v>3.949413751076722</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.23691457366036</v>
+        <v>13.47474284553878</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.23691458601493</v>
+        <v>20.10036780026627</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.23691454306379</v>
+        <v>0.3538204300212051</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.23691457913357</v>
+        <v>24.3470146247008</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.23691459103753</v>
+        <v>29.59445750871226</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.23691454709718</v>
+        <v>1.882874972999193</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.23691458558256</v>
+        <v>35.17807088747659</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.23691459676707</v>
+        <v>38.0699363113966</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.23691459561154</v>
+        <v>29.85990753086586</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.23691460951867</v>
+        <v>33.89539066094108</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.23691461348209</v>
+        <v>37.43096776015173</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.23691456570352</v>
+        <v>7.201633299013743</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.23691460094107</v>
+        <v>13.15242941710915</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.23691461159504</v>
+        <v>26.83180301656806</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.23691459333162</v>
+        <v>7.467384880444651</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.23691462969706</v>
+        <v>22.82268388742353</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.23691464399753</v>
+        <v>30.83495282565069</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.23691459226615</v>
+        <v>4.886368956240378</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.23691463101004</v>
+        <v>20.56708719347252</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.23691464660411</v>
+        <v>32.67294539471298</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.23691460063541</v>
+        <v>0.7253306846129384</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.23691464356963</v>
+        <v>30.25301187021885</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.23691464305768</v>
+        <v>17.99205319907575</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.23691463778491</v>
+        <v>14.17700156017384</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.23691465658293</v>
+        <v>32.14974838187189</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.23691466106732</v>
+        <v>33.74811494249302</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.23691460508884</v>
+        <v>5.731147453674001</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.23691464595385</v>
+        <v>12.04069708066428</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.23691465802368</v>
+        <v>16.44684558076401</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.23691461257066</v>
+        <v>14.54003156836611</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.23691464916815</v>
+        <v>18.48436756883134</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.23691466315099</v>
+        <v>28.00514253483801</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.23691461145478</v>
+        <v>3.241976050970532</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.23691465080822</v>
+        <v>6.627981113042278</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.2369146654684</v>
+        <v>10.1650685333854</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.23691462062583</v>
+        <v>1.489953714466044</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.23691466377101</v>
+        <v>16.23099301346533</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.23691467714154</v>
+        <v>30.0406694759643</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.23691467116193</v>
+        <v>19.40279594712885</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.23691468909581</v>
+        <v>36.2837965178387</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.23691469292558</v>
+        <v>41.40725878617077</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.23691463643982</v>
+        <v>5.697308660358754</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.23691467716219</v>
+        <v>12.69110279094962</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.23691468950454</v>
+        <v>23.15341622879023</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.23691466959949</v>
+        <v>45.51528283818129</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.23691466357148</v>
+        <v>41.26518040624167</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.2369146823138</v>
+        <v>52.62743157101912</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.23691468685568</v>
+        <v>56.44679692430175</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.23691462816545</v>
+        <v>18.52115828102442</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.23691467182615</v>
+        <v>49.15997246971864</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.23691468343766</v>
+        <v>51.02373452499631</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.23691463451059</v>
+        <v>25.60441702807138</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.23691467360905</v>
+        <v>35.32312264791216</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.23691468744719</v>
+        <v>40.74913327650077</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.23691463553592</v>
+        <v>9.064822487544159</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.23691467798455</v>
+        <v>32.90746413506832</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.23691469274127</v>
+        <v>38.99792911334221</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.23691464615962</v>
+        <v>9.466847969559883</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.23691469229679</v>
+        <v>54.92958854969201</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.23691470550938</v>
+        <v>62.81651369612075</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.23691469869657</v>
+        <v>68.84279129484455</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.23691471660366</v>
+        <v>74.73360296357654</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.23691472044641</v>
+        <v>79.54260003141285</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.23691466132918</v>
+        <v>32.84940712147485</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.23691470480052</v>
+        <v>67.28263049412323</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.23691471663247</v>
+        <v>71.38751102572201</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.23691467343949</v>
+        <v>51.91855285761815</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.2369146671539</v>
+        <v>35.13968463267697</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.23691468565248</v>
+        <v>40.97927745370446</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.23691469021061</v>
+        <v>55.47969568829856</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.23691463162068</v>
+        <v>13.20528443565624</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.23691467540802</v>
+        <v>44.62430110494324</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.23691468688057</v>
+        <v>50.98634345013075</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.23691463784331</v>
+        <v>17.40865071887074</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.23691467695008</v>
+        <v>31.63171041271721</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.23691469070988</v>
+        <v>40.85590906297985</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.23691463952841</v>
+        <v>6.630078564548388</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.23691468201109</v>
+        <v>31.93651397953031</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.23691469677928</v>
+        <v>42.9498146098111</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.23691465021376</v>
+        <v>6.243160933532511</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.23691469635313</v>
+        <v>51.68963421009084</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.23691470948569</v>
+        <v>68.10372972810583</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.23691470244329</v>
+        <v>64.89325499828155</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.23691472012463</v>
+        <v>69.24116107080906</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.23691472396539</v>
+        <v>80.94941930982046</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.23691466489203</v>
+        <v>22.81916512292994</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.23691470852389</v>
+        <v>60.51104368271977</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.23691472020442</v>
+        <v>70.7317808262256</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.23691465740934</v>
+        <v>47.01606327932532</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.23691465104496</v>
+        <v>22.67366690873715</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.23691466956218</v>
+        <v>29.93381645038099</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.23691467419107</v>
+        <v>40.70360806914121</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.23691461722903</v>
+        <v>10.2919906203898</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.23691465956793</v>
+        <v>39.43660788596739</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.23691467150979</v>
+        <v>46.3043499232177</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.23691462486534</v>
+        <v>14.25594342882332</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.23691466241097</v>
+        <v>33.16389922664182</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.23691467650812</v>
+        <v>45.18797392996574</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.23691462581736</v>
+        <v>8.275101848383304</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.23691466630929</v>
+        <v>32.66625556711249</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.23691468144289</v>
+        <v>44.92110843258578</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.23691463558347</v>
+        <v>4.282517104687226</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.23691467987566</v>
+        <v>46.78899026606831</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.23691469333508</v>
+        <v>66.71774985210375</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.23691468631632</v>
+        <v>51.83053029616285</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.23691470399693</v>
+        <v>61.1442868674621</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.23691470791087</v>
+        <v>78.45061896975508</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.23691465022402</v>
+        <v>15.97231554553553</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.23691469250758</v>
+        <v>54.13458038886949</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.236914704694</v>
+        <v>70.65283107449254</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.23691455688002</v>
+        <v>9.740008938529947</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.23691458414584</v>
+        <v>19.77401410680418</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.23691459466402</v>
+        <v>30.38067430968972</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.23691455663619</v>
+        <v>4.895493606045999</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.23691458796999</v>
+        <v>26.13593083788618</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.23691459779977</v>
+        <v>27.98764256515487</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.23691456060077</v>
+        <v>9.024359685007941</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.23691459382363</v>
+        <v>47.6422228011384</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.23691460320847</v>
+        <v>49.59654491451441</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.23691460174867</v>
+        <v>24.46786328040145</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.23691461361922</v>
+        <v>31.5264014677206</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.23691461685116</v>
+        <v>32.7718637777695</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.23691457607896</v>
+        <v>18.61506126414881</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.23691460618288</v>
+        <v>13.54893472443011</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.23691461556326</v>
+        <v>31.89775885198089</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.23691459650323</v>
+        <v>12.91742296559795</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.23691462791681</v>
+        <v>29.10185022681937</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.23691463970477</v>
+        <v>29.72842407250673</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.23691459382914</v>
+        <v>4.332549504666222</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.23691462743739</v>
+        <v>19.83646409171462</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.23691463999735</v>
+        <v>19.43782474152393</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.23691460160707</v>
+        <v>4.010172993506462</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.23691463856359</v>
+        <v>32.20628694842323</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.23691457015426</v>
+        <v>18.44477683873873</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.23691459922692</v>
+        <v>34.6261822116734</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.23691460963407</v>
+        <v>36.10915948507591</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.23691457152896</v>
+        <v>6.705930386218295</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.23691460516237</v>
+        <v>42.98134864092886</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.23691461497563</v>
+        <v>41.46323705166392</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.23691457635439</v>
+        <v>9.975595113633938</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.23691461171473</v>
+        <v>62.74440958476897</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.23691462096131</v>
+        <v>57.11309841412779</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.23691461953427</v>
+        <v>52.13458410490667</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.23691463148475</v>
+        <v>59.49359434107511</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.23691463477192</v>
+        <v>58.40229218872167</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.23691459155395</v>
+        <v>23.4845227572001</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.23691462377911</v>
+        <v>37.39164149605666</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.23691463274305</v>
+        <v>44.57821822445556</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.23691461355223</v>
+        <v>22.6237542400242</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.2369146470481</v>
+        <v>40.33442927601344</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.23691465875887</v>
+        <v>37.4903647429457</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.23691461265593</v>
+        <v>6.951298339210336</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.23691464887237</v>
+        <v>34.60694525712678</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.23691466154361</v>
+        <v>35.64034649910882</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.23691462155969</v>
+        <v>8.890495849432206</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.23691466099265</v>
+        <v>56.59122477478546</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.23691457267465</v>
+        <v>6.067093024399956</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.23691460171875</v>
+        <v>25.05197776049757</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.2369146120666</v>
+        <v>29.16407139431772</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.23691457458155</v>
+        <v>2.37215359130025</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.23691460820212</v>
+        <v>38.43473385588291</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.23691461801485</v>
+        <v>39.88110401342442</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.23691457943661</v>
+        <v>6.991388513321436</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.23691461475237</v>
+        <v>57.73918085622259</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.23691462394244</v>
+        <v>56.54572706913443</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.23691462244923</v>
+        <v>55.72244457539342</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.23691463426561</v>
+        <v>60.18731834802354</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.23691463755361</v>
+        <v>60.81157276143011</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.23691459426425</v>
+        <v>8.605844221555163</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.23691462663021</v>
+        <v>25.38701371912429</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.23691463547121</v>
+        <v>33.32968609817128</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.23691461611306</v>
+        <v>15.92038485664815</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.23691464955736</v>
+        <v>34.33818344636938</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.23691466122618</v>
+        <v>34.86420106007135</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.23691461575456</v>
+        <v>4.958653857783407</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.23691465194075</v>
+        <v>30.67327509031132</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.2369146646545</v>
+        <v>36.2608869477387</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.23691462468886</v>
+        <v>7.088491295994306</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.23691466407049</v>
+        <v>49.6345612065676</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.23691456446716</v>
+        <v>3.07912180823325</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.23691459233073</v>
+        <v>22.05089362597086</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.23691460289049</v>
+        <v>30.47875304572453</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.23691456589119</v>
+        <v>5.090492595816809</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.2369145979941</v>
+        <v>38.55217688437185</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.23691460808704</v>
+        <v>43.84376861229293</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.23691457015362</v>
+        <v>6.230996081368602</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.23691460409214</v>
+        <v>56.81236990285413</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.23691461351903</v>
+        <v>59.27013877641475</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.23691461176037</v>
+        <v>51.64195151935768</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.23691462353894</v>
+        <v>57.72240986562267</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.23691462684617</v>
+        <v>58.29079543243715</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.2369145848799</v>
+        <v>8.655846699657896</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.2369146161762</v>
+        <v>22.95749994669472</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.23691462537851</v>
+        <v>39.05145395193749</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.23691460524448</v>
+        <v>10.48670477307632</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.23691463730036</v>
+        <v>31.55180682624281</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.23691464924634</v>
+        <v>33.94920258814867</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.23691460428565</v>
+        <v>4.643249172717528</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.23691463870502</v>
+        <v>29.50130756820635</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.23691465174133</v>
+        <v>35.11343824611939</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.23691461243968</v>
+        <v>4.564130827962952</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.23691465020802</v>
+        <v>44.71301505821364</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.23691464988113</v>
+        <v>32.9451495554536</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.23691464489611</v>
+        <v>27.76641456002578</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.23691466071824</v>
+        <v>43.08112399236596</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.23691466439303</v>
+        <v>43.07093579202029</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.23691461557118</v>
+        <v>17.32415768063203</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.23691465158721</v>
+        <v>28.22947430076648</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.23691466197292</v>
+        <v>33.17924213502386</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.23691462103213</v>
+        <v>15.8541789096141</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.23691465321433</v>
+        <v>27.01687881341862</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.23691466500438</v>
+        <v>35.77126540284456</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.23691462005763</v>
+        <v>4.484609543681287</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.23691465488917</v>
+        <v>19.40525708749659</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.23691466724247</v>
+        <v>22.68353906725273</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.23691462891813</v>
+        <v>7.094892261821773</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.23691466677986</v>
+        <v>36.39475471237417</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.23691467798828</v>
+        <v>52.37176394801888</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.2369146724704</v>
+        <v>32.86065478642675</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.23691468758705</v>
+        <v>49.4057450518838</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.23691469074539</v>
+        <v>54.43203647123052</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.23691464144165</v>
+        <v>17.26825261805196</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.23691467738508</v>
+        <v>33.0467257587523</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.23691468801526</v>
+        <v>44.91367171491946</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.23691467223721</v>
+        <v>56.95830970341999</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.23691466660087</v>
+        <v>54.6185740384509</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.23691468236495</v>
+        <v>63.20679463346515</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.23691468608156</v>
+        <v>62.81541470616325</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.23691463493146</v>
+        <v>27.19059840804196</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.2369146733804</v>
+        <v>58.91597205962267</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.23691468333141</v>
+        <v>56.95685132650931</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.23691463934751</v>
+        <v>24.6316257685168</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.23691464022215</v>
+        <v>7.610639882868774</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.23691467776943</v>
+        <v>41.66840959093071</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.23691469014302</v>
+        <v>42.22623714785482</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.23691465024115</v>
+        <v>10.63029897494465</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.23691469066923</v>
+        <v>66.01636426038419</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.23691470170478</v>
+        <v>71.75365964964641</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.23691469549506</v>
+        <v>70.27955590116053</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.23691471058405</v>
+        <v>77.10586240490346</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.23691471374955</v>
+        <v>80.12899215539116</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.23691466218491</v>
+        <v>32.99637429218808</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.2369147005221</v>
+        <v>72.79180125822394</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.23691471066799</v>
+        <v>73.64551195215606</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.23691467527524</v>
+        <v>59.54843695533903</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.23691466944856</v>
+        <v>51.58048268426799</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.23691468500351</v>
+        <v>56.11591512234165</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.23691468873139</v>
+        <v>62.41167394837429</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.23691463767154</v>
+        <v>20.24666551130308</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.23691467622019</v>
+        <v>53.79505742591903</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.23691468604479</v>
+        <v>54.35567573639379</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.23691464197574</v>
+        <v>15.91202211094309</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.2369146762995</v>
+        <v>34.95669421595242</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.23691468786927</v>
+        <v>40.26560591173251</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.23691464341587</v>
+        <v>4.507259393475739</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.23691468097731</v>
+        <v>38.62845093988902</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.23691469335677</v>
+        <v>43.06572589099657</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.23691465345693</v>
+        <v>6.482012853181079</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.23691469386612</v>
+        <v>60.00836604052323</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.23691470483106</v>
+        <v>72.40385037936166</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.23691469845677</v>
+        <v>68.71260118307448</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.23691471335164</v>
+        <v>74.66109596997035</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.23691471651448</v>
+        <v>81.88309579198804</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.23691466499495</v>
+        <v>23.05937727341991</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.2369147034632</v>
+        <v>67.31149554371014</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.23691471346759</v>
+        <v>70.84627664064995</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.23691466167693</v>
+        <v>54.33382749783554</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.23691465584664</v>
+        <v>38.86685543705374</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.23691467141706</v>
+        <v>45.72896164666422</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.23691467519478</v>
+        <v>48.70927026280492</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.23691462554041</v>
+        <v>17.32898409964884</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.23691466279843</v>
+        <v>49.99993962793158</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.23691467304071</v>
+        <v>53.44725061475584</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.23691463105509</v>
+        <v>13.99691367562957</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.23691466401339</v>
+        <v>37.18100795370412</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.2369146758884</v>
+        <v>45.56993815999104</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.23691463185998</v>
+        <v>7.41910807319471</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.23691466765584</v>
+        <v>40.310962155322</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.23691468038449</v>
+        <v>47.89965067144915</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.2369146411532</v>
+        <v>7.311470360586181</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.23691467995789</v>
+        <v>58.13363528887849</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.23691469121862</v>
+        <v>74.23838445213977</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.23691468491301</v>
+        <v>61.52600066150771</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.23691469979813</v>
+        <v>72.50166915987811</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.23691470301649</v>
+        <v>82.58275703022944</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.23691465270567</v>
+        <v>20.77460038660593</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.23691468997707</v>
+        <v>68.1865835104974</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.23691470042402</v>
+        <v>77.7021789765156</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.23691455034317</v>
+        <v>13.04172695670251</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.23691458024469</v>
+        <v>25.44516299840868</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.23691459145483</v>
+        <v>32.16821225436564</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.23691454953924</v>
+        <v>-0.4096055509740744</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.23691458372506</v>
+        <v>19.40701993219434</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.23691459427671</v>
+        <v>21.73097004176534</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.23691455401572</v>
+        <v>2.982727792008923</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.2369145902901</v>
+        <v>45.08111221601776</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.2369146002974</v>
+        <v>45.54695957303022</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.23691459890183</v>
+        <v>22.29299112901516</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.23691461169654</v>
+        <v>30.32447305686644</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.2369146151404</v>
+        <v>28.03553506825131</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.23691457049645</v>
+        <v>9.015322083878988</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.23691460378582</v>
+        <v>14.1341417413955</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.23691461384702</v>
+        <v>21.71035513902844</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.23691459037424</v>
+        <v>14.79270704544284</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.23691462470329</v>
+        <v>31.37537444067739</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.23691463721073</v>
+        <v>31.30354944727252</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.23691458683943</v>
+        <v>3.145600544824866</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.23691462345001</v>
+        <v>18.13928840482045</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.23691463688563</v>
+        <v>19.38292032637471</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.23691459530876</v>
+        <v>2.218632564645652</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.23691463556209</v>
+        <v>33.46589508707321</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.23691456463716</v>
+        <v>24.81467328841447</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.23691459652029</v>
+        <v>43.88420020143764</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.23691460758118</v>
+        <v>41.31946914023895</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.23691456557919</v>
+        <v>5.410996360534867</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.23691460229349</v>
+        <v>41.81451974661023</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.2369146128043</v>
+        <v>40.08788625288179</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.23691457095801</v>
+        <v>7.781773264486052</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.23691460956737</v>
+        <v>64.64569797923505</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.236914619402</v>
+        <v>57.89254368086642</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.23691461800905</v>
+        <v>53.28715779961988</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.23691463088413</v>
+        <v>62.22960144790825</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.23691463438399</v>
+        <v>57.656718725273</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.23691458712446</v>
+        <v>18.95295348689201</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.2369146227541</v>
+        <v>43.92278200848948</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.2369146323455</v>
+        <v>42.88900978579784</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.23691460863497</v>
+        <v>23.96239227277077</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.23691464524323</v>
+        <v>43.69354175672811</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.23691465764312</v>
+        <v>40.64119450679464</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.23691460701705</v>
+        <v>7.022739045767842</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.23691464648817</v>
+        <v>36.4317027822659</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.23691466002215</v>
+        <v>38.79467287844118</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.23691461667311</v>
+        <v>7.677181234514105</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.23691465962789</v>
+        <v>60.63720308764202</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.23691456735711</v>
+        <v>10.33179822587132</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.23691459920403</v>
+        <v>31.79343384027854</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.2369146102002</v>
+        <v>31.54915973828213</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.23691456888461</v>
+        <v>0.3157754003114555</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.23691460558273</v>
+        <v>36.01625206166691</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.23691461609316</v>
+        <v>37.03193597054525</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.23691457428893</v>
+        <v>4.483121385820191</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.23691461284544</v>
+        <v>58.17511989443094</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.23691462261775</v>
+        <v>55.64641779407622</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.23691462115483</v>
+        <v>54.64032132440978</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.23691463388336</v>
+        <v>60.48208462231626</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.23691463738232</v>
+        <v>57.94036539487504</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.23691459006501</v>
+        <v>3.792954925040032</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.23691462584176</v>
+        <v>30.18561721792395</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.23691463529568</v>
+        <v>28.00790147802342</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.2369146114288</v>
+        <v>16.648361837971</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.23691464797599</v>
+        <v>36.51124687445582</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.23691466033121</v>
+        <v>37.12537335877033</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.23691461039689</v>
+        <v>5.327131536658296</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.23691464983083</v>
+        <v>32.12615906395054</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.2369146634139</v>
+        <v>39.24851156478015</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.23691462008289</v>
+        <v>6.328511943988349</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.23691466297657</v>
+        <v>52.63597941103667</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.23691455855678</v>
+        <v>8.60576313685614</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.23691458910174</v>
+        <v>30.8553109882531</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.23691460035164</v>
+        <v>35.06411854534221</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.23691455957221</v>
+        <v>4.784196259841988</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.23691459459363</v>
+        <v>37.51593005809657</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.23691460542909</v>
+        <v>43.98543949257432</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.23691456435695</v>
+        <v>5.539557820895343</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.23691460140423</v>
+        <v>60.16438623050317</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.23691461144797</v>
+        <v>60.85830958449064</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.23691460973593</v>
+        <v>52.83197404638747</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.23691462241901</v>
+        <v>60.28326810177792</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.23691462593449</v>
+        <v>59.67958661550968</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.23691458005024</v>
+        <v>6.959331422015154</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.23691461463586</v>
+        <v>33.07083733258888</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.23691462448421</v>
+        <v>36.84783316978104</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.23691459980883</v>
+        <v>12.48825359561043</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.23691463482777</v>
+        <v>34.49947235805323</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.23691464750244</v>
+        <v>36.94703134673031</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.23691459813403</v>
+        <v>5.965724483883719</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.23691463561732</v>
+        <v>30.86530144047156</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.23691464957205</v>
+        <v>38.99037568955832</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.23691460700331</v>
+        <v>5.366897785443573</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.23691464813009</v>
+        <v>48.3777466402818</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.23691464758108</v>
+        <v>34.29096145834764</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.2369146425773</v>
+        <v>29.54217045634124</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.23691465949229</v>
+        <v>46.29919278744788</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.23691466339922</v>
+        <v>44.36144587512112</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.23691461025588</v>
+        <v>13.6026311218583</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.23691464971603</v>
+        <v>27.65332349165354</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.23691466092832</v>
+        <v>32.52935087053918</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.23691461716214</v>
+        <v>20.22227960117401</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.23691465224801</v>
+        <v>32.65915180284074</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.23691466482415</v>
+        <v>37.94058664726215</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.23691461556101</v>
+        <v>2.584220548353731</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.23691465340338</v>
+        <v>18.75330574584649</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.23691466669533</v>
+        <v>21.42081400474501</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.23691462527471</v>
+        <v>4.902978589273861</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.23691466643623</v>
+        <v>38.28934126907465</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.23691467841863</v>
+        <v>51.90635950016619</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.23691467297691</v>
+        <v>35.8620765589166</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.23691468911226</v>
+        <v>51.48581424569993</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.23691469248444</v>
+        <v>56.49847404844616</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.23691463877129</v>
+        <v>14.21797411576865</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.23691467816294</v>
+        <v>34.18406192552669</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.23691468964486</v>
+        <v>42.78659781904325</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.23691467154665</v>
+        <v>62.41793744976944</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.23691466583201</v>
+        <v>58.46048285415732</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.23691468268643</v>
+        <v>69.91407470686276</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.23691468663197</v>
+        <v>67.00879732326864</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.2369146309526</v>
+        <v>24.50296905590846</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.2369146731034</v>
+        <v>61.6182387435166</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.23691468382974</v>
+        <v>61.29635973633199</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.23691463679886</v>
+        <v>30.25886895437232</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.23691467423521</v>
+        <v>48.73840492133894</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.23691468662098</v>
+        <v>46.82849707332227</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.23691463719213</v>
+        <v>7.598191642373894</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.23691467800255</v>
+        <v>44.81394972620495</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.23691469129312</v>
+        <v>43.45724007740368</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.23691464813712</v>
+        <v>9.614810341825002</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.2369146920929</v>
+        <v>70.39682205705627</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.23691470386487</v>
+        <v>73.48167595778467</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.23691469768712</v>
+        <v>76.32278473878644</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.23691471379506</v>
+        <v>83.69417248147568</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.23691471716977</v>
+        <v>86.45501923331626</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.23691466098808</v>
+        <v>31.78858267074031</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.2369147030222</v>
+        <v>77.70397497669636</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.23691471395856</v>
+        <v>75.94769819546076</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.23691467485324</v>
+        <v>64.71779381174714</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.23691466893448</v>
+        <v>54.59334273241043</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.23691468556526</v>
+        <v>61.74796502922911</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.23691468952071</v>
+        <v>66.54025691379451</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.23691463394783</v>
+        <v>18.11853297973848</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.236914676202</v>
+        <v>56.20018154546844</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.23691468679029</v>
+        <v>57.5758238131792</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.23691463965902</v>
+        <v>19.99157522552733</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.23691467707847</v>
+        <v>40.49653860552348</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.23691468939155</v>
+        <v>42.19750899693706</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.2369146406665</v>
+        <v>3.789816441942765</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.23691468148795</v>
+        <v>40.33440514527777</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.23691469478594</v>
+        <v>43.09221912444333</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.23691465163342</v>
+        <v>4.866595989522441</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.23691469556492</v>
+        <v>62.28639149795046</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.23691470725937</v>
+        <v>72.82030997555106</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.23691470090703</v>
+        <v>73.06016509857525</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.23691471680778</v>
+        <v>78.98093851023771</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.236914720178</v>
+        <v>87.20766830834413</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.23691466405361</v>
+        <v>22.2736969921553</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.23691470622726</v>
+        <v>71.05865405489402</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.23691471700601</v>
+        <v>71.4041222943256</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.23691466030793</v>
+        <v>59.73463790382583</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.23691465440716</v>
+        <v>41.52502740207557</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.23691467104901</v>
+        <v>50.20691665359978</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.23691467505587</v>
+        <v>52.9302934303105</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.23691462102634</v>
+        <v>16.54580305333569</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.23691466183354</v>
+        <v>53.50973312164621</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.23691467288218</v>
+        <v>57.24993853030271</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.23691462797958</v>
+        <v>17.76821875219755</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.23691466390159</v>
+        <v>42.78308168442842</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.23691467656448</v>
+        <v>47.77756687271467</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.23691462830041</v>
+        <v>7.055188501022865</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.23691466717948</v>
+        <v>42.10728800567507</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.23691468087853</v>
+        <v>49.13335178101899</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.23691463847926</v>
+        <v>6.427378967355498</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.2369146806575</v>
+        <v>61.25989508149311</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.23691469268832</v>
+        <v>75.34992041079728</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.23691468641945</v>
+        <v>65.51588898490697</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.23691470230509</v>
+        <v>75.3353061395773</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.23691470573428</v>
+        <v>87.07929338815536</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.23691465094168</v>
+        <v>19.83957128580034</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.23691469178322</v>
+        <v>72.84974602560276</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.23691470304916</v>
+        <v>78.91996375782868</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.23691454245134</v>
+        <v>12.99980584570147</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.23691457222971</v>
+        <v>16.74629327011208</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.23691458364627</v>
+        <v>25.14215147557483</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.2369145416159</v>
+        <v>1.07839257033768</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.23691457564191</v>
+        <v>11.38019866053899</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.23691458637013</v>
+        <v>13.98635524978049</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.23691454566831</v>
+        <v>6.379433345827206</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.23691458181</v>
+        <v>28.34182988422172</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.23691459198167</v>
+        <v>31.63228010848776</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.23691459146375</v>
+        <v>13.4379945329479</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.23691460424104</v>
+        <v>17.5069767091246</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.23691460780883</v>
+        <v>19.05105033009767</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.23691456339678</v>
+        <v>12.38475538276789</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.23691459663355</v>
+        <v>15.93660765161541</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.23691460685921</v>
+        <v>27.82552619628607</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.23691458315273</v>
+        <v>8.363664408054241</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.23691461747427</v>
+        <v>18.46552662302423</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.23691463030927</v>
+        <v>20.99395527485904</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.2369145795839</v>
+        <v>-1.314901450168399</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.23691461613823</v>
+        <v>4.11810426413459</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.23691462988084</v>
+        <v>6.751714860834298</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.23691458775208</v>
+        <v>-0.3523979717590358</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.23691462801426</v>
+        <v>14.8025577207656</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.23691455653683</v>
+        <v>15.34837970592826</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.2369145882944</v>
+        <v>24.3412870198028</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.23691459957162</v>
+        <v>25.05756489932465</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.23691455747897</v>
+        <v>0.1668832207234878</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.23691459401524</v>
+        <v>24.55919664257414</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.23691460471916</v>
+        <v>24.27907777069366</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.23691456244373</v>
+        <v>4.923687492944879</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.23691460092176</v>
+        <v>39.44740411503081</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.23691461092761</v>
+        <v>37.06577232747502</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.23691461047114</v>
+        <v>37.66969212001226</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.23691462333208</v>
+        <v>42.60503397036219</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.23691462696534</v>
+        <v>42.6262591124004</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.2369145799172</v>
+        <v>18.2099260620625</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.23691461549411</v>
+        <v>40.89521197765613</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.23691462525877</v>
+        <v>44.90764122979792</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.23691460140493</v>
+        <v>11.68258273514029</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.23691463802218</v>
+        <v>24.39402706255848</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.23691465075821</v>
+        <v>24.80547951169069</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.23691459979439</v>
+        <v>-0.9509603076544373</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.2369146392103</v>
+        <v>17.70654835776855</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.23691465307611</v>
+        <v>22.52146991506137</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.23691460916926</v>
+        <v>1.48395268775911</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.23691465215525</v>
+        <v>37.11466988037891</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.23691455931423</v>
+        <v>5.833415643820313</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.23691459103255</v>
+        <v>16.65404507748715</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.23691460224541</v>
+        <v>20.28258701495719</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.23691456083685</v>
+        <v>-1.661269298071264</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.23691459735273</v>
+        <v>21.86314369893313</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.23691460805855</v>
+        <v>24.72156583398851</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.23691456583589</v>
+        <v>5.372496340917788</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.23691460425965</v>
+        <v>36.38298721134515</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.23691461420453</v>
+        <v>39.23483216582726</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.23691461366953</v>
+        <v>40.51346922831476</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.2369146263857</v>
+        <v>42.66118778010858</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.23691463002009</v>
+        <v>46.11677179078686</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.23691458290506</v>
+        <v>5.501227936818868</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.23691461863156</v>
+        <v>30.34151601190809</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.23691462826083</v>
+        <v>34.6516657345379</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.23691460427555</v>
+        <v>6.276901790761261</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.23691464082929</v>
+        <v>18.68592388228012</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.23691465352163</v>
+        <v>23.42187024835954</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.23691460325204</v>
+        <v>-1.936405220666202</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.23691464262736</v>
+        <v>14.17019996895204</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.23691465654616</v>
+        <v>24.20628313328315</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.23691461266634</v>
+        <v>1.090234765511287</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.23691465559043</v>
+        <v>29.68074822674729</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.23691455060161</v>
+        <v>1.644721064501248</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.23691458101558</v>
+        <v>13.08688471326487</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.23691459247788</v>
+        <v>21.05940029624487</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.23691455158507</v>
+        <v>-1.810006960257063</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.23691458643526</v>
+        <v>18.88156448479831</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.23691459745508</v>
+        <v>27.50027318487492</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.23691455595744</v>
+        <v>0.6685568311063825</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.23691459286803</v>
+        <v>33.07987428543646</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.23691460308504</v>
+        <v>39.66717887504109</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.23691460224102</v>
+        <v>33.15612026312287</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.23691461491649</v>
+        <v>37.44026226604375</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.23691461856673</v>
+        <v>41.95616232896366</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.23691457288894</v>
+        <v>2.993964174628157</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.23691460743432</v>
+        <v>26.04780504159263</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.23691461745494</v>
+        <v>37.41425161904898</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.2369145926407</v>
+        <v>2.681943631733137</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.23691462765177</v>
+        <v>16.80150594137389</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.23691464066349</v>
+        <v>23.72859885286589</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.236914590947</v>
+        <v>-2.31188148718029</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.23691462837114</v>
+        <v>11.66284879860186</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.23691464264816</v>
+        <v>23.12611817398274</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.23691459953314</v>
+        <v>-0.9663511394062851</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.23691464067289</v>
+        <v>24.56712286887778</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.23691464029771</v>
+        <v>16.91980397164718</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.2369146359614</v>
+        <v>12.81714716249913</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.23691465289808</v>
+        <v>24.57921852472409</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.23691465689101</v>
+        <v>23.57991819880931</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.23691460374789</v>
+        <v>2.356564200363906</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.23691464338339</v>
+        <v>11.12593001635152</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.23691465480407</v>
+        <v>16.53140868296705</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.23691461108228</v>
+        <v>15.23183993027443</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.2369146462398</v>
+        <v>23.10631246967394</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.23691465905767</v>
+        <v>31.00402329605454</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.236914609512</v>
+        <v>-1.816646207631443</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.23691464741328</v>
+        <v>7.027218760425516</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.23691466089589</v>
+        <v>11.14036665543573</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.23691461899599</v>
+        <v>2.936763258992531</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.23691466025816</v>
+        <v>24.30866873417355</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.23691467240624</v>
+        <v>36.570294503507</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.23691466764265</v>
+        <v>24.16511579124397</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.23691468377507</v>
+        <v>34.78968984486488</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.23691468721047</v>
+        <v>38.48367315968672</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.23691463344381</v>
+        <v>6.786518533072201</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.2369146730292</v>
+        <v>18.43973201471222</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.23691468463657</v>
+        <v>29.01686051448874</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.23691466434475</v>
+        <v>40.7470582665769</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.23691465933561</v>
+        <v>37.41132712662123</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.23691467621202</v>
+        <v>44.9141610317848</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.23691468024825</v>
+        <v>42.846622818612</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.23691462453529</v>
+        <v>10.85098484196264</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.23691466688809</v>
+        <v>42.02088630629532</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.2369146778319</v>
+        <v>43.71311341243502</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.23691463080479</v>
+        <v>23.03128576242691</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.23691466833192</v>
+        <v>36.72918328545208</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.23691468096341</v>
+        <v>38.66030460023363</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.2369146312703</v>
+        <v>4.26705887290202</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.23691467214686</v>
+        <v>33.46070723027464</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.23691468564356</v>
+        <v>34.91276666612669</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.23691464201253</v>
+        <v>9.410546066994446</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.23691468609383</v>
+        <v>57.17257075702096</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.23691469803355</v>
+        <v>60.0951089824718</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.23691469257402</v>
+        <v>67.4201462354321</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.23691470867514</v>
+        <v>70.51094359010108</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.23691471211782</v>
+        <v>71.87600783490336</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.2369146558493</v>
+        <v>28.75287485935167</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.236914698098</v>
+        <v>64.97769398574273</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.23691470916473</v>
+        <v>67.91472958694504</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.23691466773994</v>
+        <v>44.78313222549475</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.23691466251746</v>
+        <v>32.52193178443312</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.23691467917292</v>
+        <v>36.95414428187254</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.23691468322059</v>
+        <v>43.75422942988801</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.23691462760395</v>
+        <v>4.749689485809114</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.23691467006627</v>
+        <v>37.53443289913308</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.23691468087375</v>
+        <v>42.31397475694685</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.23691463375526</v>
+        <v>15.76934191981483</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.23691467126437</v>
+        <v>31.42133880623601</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.23691468382331</v>
+        <v>37.4100971496047</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.23691463483592</v>
+        <v>2.583466450513768</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.23691467572228</v>
+        <v>31.57559011692937</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.23691468922885</v>
+        <v>37.27381331774829</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.23691464560984</v>
+        <v>7.090315159087336</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.23691468966789</v>
+        <v>51.6845381909807</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.23691470153096</v>
+        <v>63.00301307595348</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.23691469588843</v>
+        <v>64.62332700833076</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.23691471178395</v>
+        <v>67.66036143429928</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.23691471522348</v>
+        <v>75.60505563498877</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.23691465899935</v>
+        <v>20.58013018603158</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.23691470139611</v>
+        <v>60.90588856902104</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.23691471230628</v>
+        <v>67.36567207032851</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.23691465312855</v>
+        <v>40.03503690301551</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.23691464787532</v>
+        <v>18.88278215446305</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.23691466454896</v>
+        <v>24.40488404135271</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.23691466865212</v>
+        <v>29.27930537195628</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.23691461458609</v>
+        <v>1.691915505036608</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.23691465560037</v>
+        <v>32.52064747281952</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.23691466686278</v>
+        <v>40.32043347357563</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.23691462203479</v>
+        <v>11.51339909603078</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.23691465803664</v>
+        <v>31.18575233754393</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.23691467094443</v>
+        <v>40.55350497439808</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.23691462240477</v>
+        <v>1.746012395736155</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.23691466135047</v>
+        <v>28.5155964756518</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.23691467524706</v>
+        <v>38.87681563151844</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.23691463237618</v>
+        <v>4.075622762024846</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.23691467466901</v>
+        <v>46.60269819440975</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.23691468687057</v>
+        <v>62.13528368354571</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.23691468126419</v>
+        <v>51.33512051348748</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.23691469715441</v>
+        <v>58.54834907379094</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.23691470065428</v>
+        <v>70.09736353938175</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.23691464576094</v>
+        <v>11.55114803782826</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.23691468683386</v>
+        <v>55.86712444987651</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.23691469822878</v>
+        <v>68.09824446731029</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.23691453761509</v>
+        <v>13.08139095189083</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.23691457035062</v>
+        <v>16.17949328234105</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.23691458331705</v>
+        <v>28.84250723990445</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.23691453718541</v>
+        <v>3.472647936845657</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.2369145746408</v>
+        <v>17.84948806804696</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.23691458681291</v>
+        <v>19.84524315659415</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.23691454162994</v>
+        <v>8.546746237637574</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.23691458158516</v>
+        <v>37.21406611744189</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.23691459325777</v>
+        <v>40.57617391203343</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.23691459165244</v>
+        <v>17.13552075228145</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.2369146063868</v>
+        <v>23.91361615825921</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.23691461038986</v>
+        <v>28.25828468485119</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.23691456111303</v>
+        <v>16.89961825486828</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.23691459715456</v>
+        <v>15.17348100205121</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.23691460856646</v>
+        <v>29.2342503610188</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.23691458998691</v>
+        <v>10.99832961906136</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.23691462783111</v>
+        <v>27.82441615356631</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.23691464263682</v>
+        <v>37.36856123188299</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.23691458713692</v>
+        <v>-0.8473640316972251</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.23691462739824</v>
+        <v>11.27576572154436</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.23691464316239</v>
+        <v>16.84245552311075</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.23691459614228</v>
+        <v>-1.851139470883325</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.23691464070841</v>
+        <v>22.94589843979485</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.23691455433615</v>
+        <v>18.17687422230735</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.23691458928117</v>
+        <v>29.94131908659986</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.23691460212926</v>
+        <v>32.69563272767925</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.23691455588997</v>
+        <v>2.866861230068803</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.23691459611728</v>
+        <v>35.83520255675442</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.23691460830617</v>
+        <v>35.6834163068489</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.23691456146745</v>
+        <v>5.83814527083301</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.23691460404233</v>
+        <v>53.58617946588832</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.23691461556545</v>
+        <v>49.65234824434053</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.23691461401876</v>
+        <v>50.32434914559352</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.23691462886109</v>
+        <v>58.71773124276295</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.23691463292786</v>
+        <v>59.04539519409194</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.23691458061993</v>
+        <v>22.79367777702147</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.23691461923975</v>
+        <v>47.48431315554026</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.23691463016554</v>
+        <v>51.75256237973335</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.23691461143816</v>
+        <v>21.12259892932243</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.23691465182681</v>
+        <v>42.05015549734469</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.23691466656382</v>
+        <v>48.21335297790391</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.23691461076514</v>
+        <v>5.551095018827954</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.236914654164</v>
+        <v>32.94631284372541</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.23691467011818</v>
+        <v>43.93841113708505</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.23691462123938</v>
+        <v>6.724665608817521</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.23691466883828</v>
+        <v>58.42175324010397</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.23691455758784</v>
+        <v>5.485939674426213</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.23691459251486</v>
+        <v>21.67877841853459</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.23691460529151</v>
+        <v>28.34524863059841</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.23691455979394</v>
+        <v>-0.9689091471563138</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.23691460001964</v>
+        <v>32.95254866251159</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.23691461221112</v>
+        <v>36.92968554889028</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.23691456542889</v>
+        <v>3.255182819869837</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.2369146079673</v>
+        <v>50.0116891002148</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.23691461942349</v>
+        <v>52.77818693374188</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.23691461776918</v>
+        <v>52.87642092862852</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.23691463244965</v>
+        <v>57.6935255047561</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.23691463651763</v>
+        <v>61.1927354280668</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.23691458411211</v>
+        <v>8.094224974145767</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.23691462291591</v>
+        <v>36.1598705967574</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.23691463369673</v>
+        <v>43.19513316473979</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.23691461469802</v>
+        <v>11.71335243333116</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.23691465503948</v>
+        <v>34.59107927186807</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.23691466972188</v>
+        <v>45.02544119730229</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.23691461468069</v>
+        <v>1.249477630328702</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.23691465805562</v>
+        <v>27.59612738857814</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.23691467406076</v>
+        <v>44.73459849417665</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.23691462521655</v>
+        <v>2.182661681487549</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.23691467277087</v>
+        <v>48.99852313122103</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.23691454725845</v>
+        <v>2.008209533828325</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.23691458075535</v>
+        <v>17.19898751166721</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.2369145937844</v>
+        <v>28.50952959284645</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.23691454887359</v>
+        <v>0.6622645842698951</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.23691458728284</v>
+        <v>31.4841657438699</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.23691459979748</v>
+        <v>38.45166967022789</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.23691455374113</v>
+        <v>1.384490810967097</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.23691459460446</v>
+        <v>46.90990999333471</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.23691460635046</v>
+        <v>54.00118853492808</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.23691460429307</v>
+        <v>42.73843245836555</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.2369146189368</v>
+        <v>49.17412928695525</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.23691462304304</v>
+        <v>52.2433570793695</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.23691457227044</v>
+        <v>6.836819703673186</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.23691460979689</v>
+        <v>27.56267471347696</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.23691462101475</v>
+        <v>43.33633459195707</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.23691460105592</v>
+        <v>7.460005846486069</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.23691463971624</v>
+        <v>32.32183606676149</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.23691465472356</v>
+        <v>45.30315035820013</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.23691460030736</v>
+        <v>1.620618947815608</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.23691464157407</v>
+        <v>26.87779834695948</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.236914657939</v>
+        <v>42.04554184799026</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.23691460983637</v>
+        <v>0.7302103299011797</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.23691465543027</v>
+        <v>43.54738799628852</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.23691465498347</v>
+        <v>33.92552065613451</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.23691464856033</v>
+        <v>23.91308691387491</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.23691466833744</v>
+        <v>46.90873687211909</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.23691467297754</v>
+        <v>54.6153749738744</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.23691461353647</v>
+        <v>4.081013837998778</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.23691465701432</v>
+        <v>24.44930636898531</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.23691466972269</v>
+        <v>34.35977566169812</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.23691462026628</v>
+        <v>12.8371372320225</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.23691465915953</v>
+        <v>26.16554799459086</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.23691467378279</v>
+        <v>37.42470881735956</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.2369146193438</v>
+        <v>-2.372345936390502</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.23691466125053</v>
+        <v>9.629653302157177</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.23691467656717</v>
+        <v>15.2349806488266</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.23691462961803</v>
+        <v>-0.1867618937468727</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.23691467540641</v>
+        <v>28.6198718528521</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.23691468934615</v>
+        <v>42.80368367805048</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.23691468217023</v>
+        <v>30.06536869605631</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.23691470101456</v>
+        <v>53.09573668903295</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.23691470497456</v>
+        <v>58.21354939342486</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.23691464511143</v>
+        <v>3.903311614152688</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.23691468841672</v>
+        <v>26.30340345227202</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.23691470133775</v>
+        <v>37.04062409160441</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.23691468305783</v>
+        <v>70.53057378255373</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.23691467581605</v>
+        <v>63.01351663034154</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.23691469552868</v>
+        <v>78.54072004229241</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.23691470022113</v>
+        <v>85.2248860281335</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.23691463792228</v>
+        <v>23.40181600998516</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.23691468436641</v>
+        <v>75.94595287306593</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.23691469657507</v>
+        <v>80.44333729088096</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.2369146433717</v>
+        <v>25.76195050465833</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.236914684905</v>
+        <v>47.96448274512777</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.23691469936321</v>
+        <v>53.0691730988837</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.23691464470719</v>
+        <v>6.638455766062282</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.2369146898994</v>
+        <v>43.01791355296244</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.23691470529196</v>
+        <v>49.59582378470485</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.23691465648619</v>
+        <v>10.41170898468976</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.23691470542813</v>
+        <v>75.32668932587268</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.23691471918556</v>
+        <v>80.03699438681133</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.23691471111026</v>
+        <v>87.09820392636344</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.23691472991931</v>
+        <v>98.12325022067444</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.23691473388715</v>
+        <v>99.82208911275056</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.23691467126049</v>
+        <v>33.25109184099195</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.23691471747941</v>
+        <v>92.03566701579442</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.23691472984629</v>
+        <v>93.12499441600811</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.23691468694055</v>
+        <v>73.62054451212305</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.23691467944249</v>
+        <v>53.43164544667951</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.23691469889823</v>
+        <v>64.23960672265903</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.23691470360572</v>
+        <v>81.96999884220074</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.23691464141455</v>
+        <v>13.62562454729397</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.23691468799237</v>
+        <v>67.93313454323376</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.23691470005047</v>
+        <v>77.59913119236789</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.23691464672808</v>
+        <v>14.22002951728644</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.23691468826376</v>
+        <v>41.02850540130659</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.23691470263872</v>
+        <v>50.31552470190844</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.23691464875763</v>
+        <v>2.28689237354126</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.23691469398197</v>
+        <v>40.33317039389367</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.23691470938342</v>
+        <v>52.10685120017916</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.23691466058647</v>
+        <v>4.000054827391917</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.23691470952432</v>
+        <v>68.5598669951242</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.23691472319585</v>
+        <v>82.47535113431064</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.23691471489392</v>
+        <v>81.35643677421102</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.23691473346383</v>
+        <v>91.76205441782713</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.23691473742829</v>
+        <v>100.0756028189284</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.23691467485169</v>
+        <v>19.63422918598993</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.2369147212409</v>
+        <v>83.8370843300868</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.23691473344302</v>
+        <v>90.66999600583416</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.23691466991033</v>
+        <v>68.37528258132897</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.23691466236322</v>
+        <v>36.96023190121468</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.23691468184038</v>
+        <v>50.46862320527877</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.23691468662476</v>
+        <v>65.52245453402195</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.23691462615061</v>
+        <v>10.42538693963502</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.23691467118235</v>
+        <v>58.97071199021897</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.23691468373853</v>
+        <v>71.23058409841707</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.23691463295691</v>
+        <v>12.53174484326341</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.23691467283459</v>
+        <v>42.45036427604194</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.23691468757042</v>
+        <v>55.62097733809482</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.2369146342228</v>
+        <v>5.456680758463353</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.23691467732729</v>
+        <v>40.81060506962918</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.23691469312687</v>
+        <v>54.68568363343248</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.23691464508942</v>
+        <v>4.530081992510258</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.23691469207204</v>
+        <v>63.11824293807628</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.23691470609446</v>
+        <v>82.55790093040581</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.23691469785465</v>
+        <v>68.42421116688894</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.23691471642224</v>
+        <v>85.50209992118745</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.23691472046489</v>
+        <v>99.97658976624892</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.23691465935443</v>
+        <v>15.67133264647662</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.23691470430489</v>
+        <v>77.75760682704644</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.23691471703747</v>
+        <v>91.37449409372468</v>
       </c>
     </row>
   </sheetData>
